--- a/Trading App/App/excel/venkatesh.xlsx
+++ b/Trading App/App/excel/venkatesh.xlsx
@@ -2,24 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Holdings" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPWizard" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AmiPy" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Overnight_options" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -30,9 +34,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,19 +54,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,11 +68,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -444,14 +437,11 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="18.109375" bestFit="1" customWidth="1" min="3" max="4"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -551,12 +541,17 @@
       <c r="C3" s="2" t="n">
         <v>45147</v>
       </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>178</v>
       </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>24</v>
       </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -570,12 +565,25 @@
       <c r="C4" s="2" t="n">
         <v>45148</v>
       </c>
+      <c r="D4" s="2" t="n">
+        <v>45167</v>
+      </c>
       <c r="E4" t="n">
         <v>77.8</v>
       </c>
+      <c r="F4" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.799999999999997</v>
+      </c>
       <c r="H4" t="n">
         <v>50</v>
       </c>
+      <c r="I4" t="n">
+        <v>439.9999999999999</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -588,13 +596,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -700,6 +708,7 @@
       <c r="K2" t="n">
         <v>-854.9999999999998</v>
       </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1448,12 +1457,10 @@
           <t>NIFTY</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>19300</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="n">
+      <c r="C19" t="n">
+        <v>19300</v>
+      </c>
+      <c r="D19" s="2" t="n">
         <v>45159</v>
       </c>
       <c r="E19" t="inlineStr">
@@ -1466,15 +1473,11 @@
           <t>14:09</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>78.90</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>114.00</t>
-        </is>
+      <c r="G19" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>114</v>
       </c>
       <c r="I19" t="n">
         <v>35.09999999999999</v>
@@ -1500,12 +1503,10 @@
           <t>BANKNIFTY</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>44000</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="n">
+      <c r="C20" t="n">
+        <v>44000</v>
+      </c>
+      <c r="D20" s="2" t="n">
         <v>45159</v>
       </c>
       <c r="E20" t="inlineStr">
@@ -1518,15 +1519,11 @@
           <t>14:09</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>194.45</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>221.80</t>
-        </is>
+      <c r="G20" t="n">
+        <v>194.45</v>
+      </c>
+      <c r="H20" t="n">
+        <v>221.8</v>
       </c>
       <c r="I20" t="n">
         <v>27.35000000000002</v>
@@ -1539,6 +1536,846 @@
       </c>
       <c r="L20" t="n">
         <v>40.05885335999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>19650</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45160</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10:36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-19.9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>40</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-796</v>
+      </c>
+      <c r="L21" t="n">
+        <v>35.73148388000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>44000</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45160</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>12:19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>155.35</v>
+      </c>
+      <c r="H22" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-17.94999999999999</v>
+      </c>
+      <c r="J22" t="n">
+        <v>15</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-269.2499999999998</v>
+      </c>
+      <c r="L22" t="n">
+        <v>37.96837698</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>44100</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>15:05</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>140.15</v>
+      </c>
+      <c r="H23" t="n">
+        <v>385.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>245.35</v>
+      </c>
+      <c r="J23" t="n">
+        <v>15</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3680.25</v>
+      </c>
+      <c r="L23" t="n">
+        <v>47.20634835000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>19600</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>14:20</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>118.3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>178</v>
+      </c>
+      <c r="I24" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>40</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2388</v>
+      </c>
+      <c r="L24" t="n">
+        <v>47.25780160000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>19500</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45162</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>13:19</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-22.7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>50</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-1135</v>
+      </c>
+      <c r="L25" t="n">
+        <v>35.649236</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45162</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>12:05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>14:58</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>66.05</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-64.05</v>
+      </c>
+      <c r="J26" t="n">
+        <v>15</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-960.75</v>
+      </c>
+      <c r="L26" t="n">
+        <v>35.4373854</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>19250</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10:26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>114.05</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="J27" t="n">
+        <v>100</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1255</v>
+      </c>
+      <c r="L27" t="n">
+        <v>51.1814329</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>44100</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10:26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>11:46</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>293.65</v>
+      </c>
+      <c r="H28" t="n">
+        <v>254.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-39.54999999999998</v>
+      </c>
+      <c r="J28" t="n">
+        <v>30</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-1186.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>44.89963014000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>19300</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>14:24</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="H29" t="n">
+        <v>81</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-8.799999999999997</v>
+      </c>
+      <c r="J29" t="n">
+        <v>50</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-439.9999999999999</v>
+      </c>
+      <c r="L29" t="n">
+        <v>40.44702899999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>44300</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>11:26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>293.65</v>
+      </c>
+      <c r="H30" t="n">
+        <v>346</v>
+      </c>
+      <c r="I30" t="n">
+        <v>52.35000000000002</v>
+      </c>
+      <c r="J30" t="n">
+        <v>30</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1570.500000000001</v>
+      </c>
+      <c r="L30" t="n">
+        <v>50.2984734</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>44500</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>10:18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>15:06</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-34.80000000000001</v>
+      </c>
+      <c r="J31" t="n">
+        <v>15</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-522.0000000000002</v>
+      </c>
+      <c r="L31" t="n">
+        <v>38.27306798999999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>19800</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>13:38</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="H32" t="n">
+        <v>15</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-20.85</v>
+      </c>
+      <c r="J32" t="n">
+        <v>80</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-1668</v>
+      </c>
+      <c r="L32" t="n">
+        <v>36.895416</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>19450</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>10:16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>14:32</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="H33" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-23</v>
+      </c>
+      <c r="J33" t="n">
+        <v>50</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-1150</v>
+      </c>
+      <c r="L33" t="n">
+        <v>36.3221732</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>15:05</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="H34" t="n">
+        <v>300.95</v>
+      </c>
+      <c r="I34" t="n">
+        <v>181.05</v>
+      </c>
+      <c r="J34" t="n">
+        <v>15</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2715.75</v>
+      </c>
+      <c r="L34" t="n">
+        <v>44.420255565</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>44100</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>10:36</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>11</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-66.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>15</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-994.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>35.6056197</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>19300</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10:38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>14:13</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-24.05</v>
+      </c>
+      <c r="J36" t="n">
+        <v>50</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-1202.5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>35.8299321</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>19350</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>45170</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>-14.09999999999999</v>
+      </c>
+      <c r="J37" t="n">
+        <v>100</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-1410</v>
+      </c>
+      <c r="L37" t="n">
+        <v>45.2635147</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>19600</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>45170</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10:41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>-14</v>
+      </c>
+      <c r="J38" t="n">
+        <v>80</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-1120</v>
+      </c>
+      <c r="L38" t="n">
+        <v>42.54808848</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +2395,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1658,12 +2495,16 @@
       <c r="C3" s="2" t="n">
         <v>45147</v>
       </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>178</v>
       </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>24</v>
       </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>4272</v>
       </c>
@@ -1680,14 +2521,208 @@
       <c r="C4" s="2" t="n">
         <v>45148</v>
       </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>77.8</v>
       </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>50</v>
       </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>3890</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Trade_Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Future_Entry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Future_Exit</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Option_Entry</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Option_Exit</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Trade_Points</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PnL</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19320</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19341</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1410</v>
+      </c>
+      <c r="I2" t="n">
+        <v>569.5919725</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19338.95</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19405</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="G3" t="n">
+        <v>56.54999999999927</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5654.999999999927</v>
+      </c>
+      <c r="I3" t="n">
+        <v>569.4520391000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19335.1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19357.3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18.00000000000073</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1800.000000000073</v>
+      </c>
+      <c r="I4" t="n">
+        <v>568.4616614399999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19424.35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19403.6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="F5" t="n">
+        <v>65.62</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20.00000000000028</v>
+      </c>
+      <c r="I5" t="n">
+        <v>577.0542668400001</v>
       </c>
     </row>
   </sheetData>
